--- a/models_in_excel/Linear_Regression_3_Variables.xlsx
+++ b/models_in_excel/Linear_Regression_3_Variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Books\AI\Practice\PDF\Karim\EXCEL\Git_hub\ML_Models\models_in_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Books\AI\Practice\PDF\Karim\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AF4933-2BF2-43F5-A2D5-37C623FFD0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF71B297-BB42-4EF9-8764-484DE6CD47D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Brand</t>
   </si>
@@ -76,12 +76,51 @@
       <t>2</t>
     </r>
   </si>
+  <si>
+    <t>Standard Error for X1</t>
+  </si>
+  <si>
+    <t>Standard Error for X2</t>
+  </si>
+  <si>
+    <t>Standard Error for X3</t>
+  </si>
+  <si>
+    <t>t1=x1</t>
+  </si>
+  <si>
+    <t>t2=x2</t>
+  </si>
+  <si>
+    <t>t3=x3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-squared </t>
+  </si>
+  <si>
+    <t>(x1- Mean(x1))^2</t>
+  </si>
+  <si>
+    <t>(x2- Mean(x2))^2</t>
+  </si>
+  <si>
+    <t>(x3- Mean(x3))^2</t>
+  </si>
+  <si>
+    <t>(y-Mean(Y))2</t>
+  </si>
+  <si>
+    <t>Adjusted R-Squared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIF : </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +140,14 @@
       <b/>
       <vertAlign val="superscript"/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -207,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -220,6 +267,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,9 +655,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>14837</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11576</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2351</c:v>
@@ -1411,9 +1461,6 @@
                 <c:pt idx="16">
                   <c:v>14837</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>11576</c:v>
-                </c:pt>
                 <c:pt idx="18">
                   <c:v>2351</c:v>
                 </c:pt>
@@ -1863,31 +1910,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Engine_Size Vs Price</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2213,9 +2235,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>14837</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11576</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2351</c:v>
@@ -3120,31 +3139,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Price Vs Predicted(Price)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3177,36 +3171,85 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Linear_Regression_3_variables!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Price</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.30927267333341574"/>
+                  <c:y val="-0.20546573965488357"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>Linear_Regression_3_variables!$F$6:$F$55</c:f>
               <c:numCache>
@@ -3263,9 +3306,6 @@
                 <c:pt idx="16">
                   <c:v>14837</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>11576</c:v>
-                </c:pt>
                 <c:pt idx="18">
                   <c:v>2351</c:v>
                 </c:pt>
@@ -3364,41 +3404,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E9CF-4CA7-947B-67200F20A1C6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Linear_Regression_3_variables!$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Predicted(Y)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Linear_Regression_3_variables!$G$6:$G$55</c:f>
               <c:numCache>
@@ -3556,11 +3563,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E9CF-4CA7-947B-67200F20A1C6}"/>
+              <c16:uniqueId val="{00000000-E0A9-47DD-8087-89D1FD528CED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3572,18 +3579,73 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="407890160"/>
-        <c:axId val="563110776"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="407890160"/>
+        <c:axId val="525274968"/>
+        <c:axId val="525275672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="525274968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3591,8 +3653,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3619,15 +3681,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563110776"/>
+        <c:crossAx val="525275672"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="563110776"/>
+        <c:axId val="525275672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3647,14 +3706,89 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Y(Predicted)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3678,9 +3812,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407890160"/>
+        <c:crossAx val="525274968"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3691,7 +3825,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6030,7 +6164,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6057,8 +6191,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6138,11 +6272,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6153,11 +6282,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6169,7 +6293,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6189,9 +6313,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6204,10 +6325,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6247,22 +6368,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6367,8 +6489,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6500,19 +6622,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6526,6 +6649,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6620,16 +6754,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>807721</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274321</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>111320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6669,8 +6803,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4587240" y="182880"/>
-          <a:ext cx="1836420" cy="175260"/>
+          <a:off x="4572001" y="83820"/>
+          <a:ext cx="1935480" cy="210380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6691,13 +6825,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -6762,16 +6896,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6798,13 +6932,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -6834,13 +6968,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
@@ -6906,23 +7040,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2964B05D-BA0E-C76E-DB3F-3CB4BEF996BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2A68BF-26A3-1341-1DF3-1FD8D5B4F488}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7206,21 +7340,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85C69E4-3E32-4A27-BD8E-1F5BDFBC21D5}">
-  <dimension ref="B3:N56"/>
+  <dimension ref="B3:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59:M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="12" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -7237,8 +7372,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="9"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="2:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -7263,12 +7403,24 @@
       <c r="I5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="10">
+      <c r="J5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5">
         <f>SUM(I6:I55)</f>
         <v>261598552.78881839</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -7294,8 +7446,20 @@
         <f>H6*H6</f>
         <v>2014195.5981709363</v>
       </c>
+      <c r="J6" s="12">
+        <v>16.483599999999996</v>
+      </c>
+      <c r="K6" s="12">
+        <v>22806520894.158401</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1.5227559999999989</v>
+      </c>
+      <c r="M6">
+        <v>135438.72040000031</v>
+      </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -7321,8 +7485,20 @@
         <f t="shared" ref="I7:I55" si="0">H7*H7</f>
         <v>2210866.7533818982</v>
       </c>
+      <c r="J7" s="12">
+        <v>9.3635999999999981</v>
+      </c>
+      <c r="K7" s="12">
+        <v>17840870100.878399</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.93315600000000121</v>
+      </c>
+      <c r="M7">
+        <v>10387600.080399998</v>
+      </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -7348,8 +7524,20 @@
         <f t="shared" si="0"/>
         <v>9185702.4322158806</v>
       </c>
+      <c r="J8" s="12">
+        <v>4.243599999999998</v>
+      </c>
+      <c r="K8" s="12">
+        <v>8558892003.9183998</v>
+      </c>
+      <c r="L8" s="12">
+        <v>1.5227559999999989</v>
+      </c>
+      <c r="M8">
+        <v>5299111.9203999983</v>
+      </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>4</v>
       </c>
@@ -7375,8 +7563,20 @@
         <f t="shared" si="0"/>
         <v>16438144.425868561</v>
       </c>
+      <c r="J9" s="12">
+        <v>1.1235999999999993</v>
+      </c>
+      <c r="K9" s="12">
+        <v>485994370.27839994</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.93315600000000121</v>
+      </c>
+      <c r="M9">
+        <v>8473804.560399998</v>
+      </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -7402,8 +7602,20 @@
         <f t="shared" si="0"/>
         <v>9018988.3729232401</v>
       </c>
+      <c r="J10" s="12">
+        <v>3.5999999999999531E-3</v>
+      </c>
+      <c r="K10" s="12">
+        <v>21813009571.5984</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.13395600000000041</v>
+      </c>
+      <c r="M10">
+        <v>36024244.080400005</v>
+      </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>6</v>
       </c>
@@ -7429,8 +7641,20 @@
         <f t="shared" si="0"/>
         <v>1132626.1413727717</v>
       </c>
+      <c r="J11" s="12">
+        <v>0.88360000000000072</v>
+      </c>
+      <c r="K11" s="12">
+        <v>359605988.35839993</v>
+      </c>
+      <c r="L11" s="12">
+        <v>7.0756000000000249E-2</v>
+      </c>
+      <c r="M11">
+        <v>2647194.0804000013</v>
+      </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>7</v>
       </c>
@@ -7456,8 +7680,20 @@
         <f t="shared" si="0"/>
         <v>4130508.7338471622</v>
       </c>
+      <c r="J12" s="12">
+        <v>3.7636000000000016</v>
+      </c>
+      <c r="K12" s="12">
+        <v>433332.55839999847</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.18835599999999936</v>
+      </c>
+      <c r="M12">
+        <v>5470827.4403999979</v>
+      </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>8</v>
       </c>
@@ -7483,8 +7719,20 @@
         <f t="shared" si="0"/>
         <v>3819968.1297981953</v>
       </c>
+      <c r="J13" s="12">
+        <v>16.483599999999996</v>
+      </c>
+      <c r="K13" s="12">
+        <v>344818159.71839994</v>
+      </c>
+      <c r="L13" s="12">
+        <v>3.0067559999999984</v>
+      </c>
+      <c r="M13">
+        <v>844597.76040000084</v>
+      </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>9</v>
       </c>
@@ -7510,8 +7758,20 @@
         <f t="shared" si="0"/>
         <v>318894.88027669047</v>
       </c>
+      <c r="J14" s="12">
+        <v>16.483599999999996</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1618108549.5184002</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.13395600000000041</v>
+      </c>
+      <c r="M14">
+        <v>1117206.7203999991</v>
+      </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>10</v>
       </c>
@@ -7537,8 +7797,20 @@
         <f t="shared" si="0"/>
         <v>8959713.7510030605</v>
       </c>
+      <c r="J15" s="12">
+        <v>0.88360000000000072</v>
+      </c>
+      <c r="K15" s="12">
+        <v>973547330.95840013</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1.7955999999999854E-2</v>
+      </c>
+      <c r="M15">
+        <v>5401068.9604000021</v>
+      </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>11</v>
       </c>
@@ -7564,8 +7836,20 @@
         <f t="shared" si="0"/>
         <v>1470115.0669657812</v>
       </c>
+      <c r="J16" s="12">
+        <v>8.6436000000000028</v>
+      </c>
+      <c r="K16" s="12">
+        <v>24931866826.958401</v>
+      </c>
+      <c r="L16" s="12">
+        <v>2.7755560000000021</v>
+      </c>
+      <c r="M16">
+        <v>9036156.2404000033</v>
+      </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>12</v>
       </c>
@@ -7591,8 +7875,20 @@
         <f t="shared" si="0"/>
         <v>144532.96647011404</v>
       </c>
+      <c r="J17" s="12">
+        <v>3.5999999999999531E-3</v>
+      </c>
+      <c r="K17" s="12">
+        <v>9241115327.718401</v>
+      </c>
+      <c r="L17" s="12">
+        <v>2.353155999999998</v>
+      </c>
+      <c r="M17">
+        <v>6630522.0003999975</v>
+      </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>13</v>
       </c>
@@ -7618,8 +7914,20 @@
         <f t="shared" si="0"/>
         <v>211580.13141509617</v>
       </c>
+      <c r="J18" s="12">
+        <v>3.7636000000000016</v>
+      </c>
+      <c r="K18" s="12">
+        <v>36611212.518400013</v>
+      </c>
+      <c r="L18" s="12">
+        <v>3.3635559999999969</v>
+      </c>
+      <c r="M18">
+        <v>3892650.0803999985</v>
+      </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>14</v>
       </c>
@@ -7645,8 +7953,20 @@
         <f t="shared" si="0"/>
         <v>6648249.862108741</v>
       </c>
+      <c r="J19" s="12">
+        <v>15.523600000000004</v>
+      </c>
+      <c r="K19" s="12">
+        <v>2507032939.2783999</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0.44355600000000106</v>
+      </c>
+      <c r="M19">
+        <v>16394562.960400004</v>
+      </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>15</v>
       </c>
@@ -7672,8 +7992,20 @@
         <f t="shared" si="0"/>
         <v>5391927.1796173071</v>
       </c>
+      <c r="J20" s="12">
+        <v>3.5999999999999531E-3</v>
+      </c>
+      <c r="K20" s="12">
+        <v>48933942.278399982</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0.32035600000000081</v>
+      </c>
+      <c r="M20">
+        <v>8340659.5204000026</v>
+      </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>16</v>
       </c>
@@ -7699,8 +8031,20 @@
         <f t="shared" si="0"/>
         <v>645155.17938638059</v>
       </c>
+      <c r="J21" s="12">
+        <v>3.5999999999999531E-3</v>
+      </c>
+      <c r="K21" s="12">
+        <v>6213021188.1984005</v>
+      </c>
+      <c r="L21" s="12">
+        <v>5.4755999999999784E-2</v>
+      </c>
+      <c r="M21">
+        <v>685550.88039999933</v>
+      </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>17</v>
       </c>
@@ -7726,8 +8070,20 @@
         <f t="shared" si="0"/>
         <v>17638888.108508121</v>
       </c>
+      <c r="J22" s="12">
+        <v>15.523600000000004</v>
+      </c>
+      <c r="K22" s="12">
+        <v>10159172404.9984</v>
+      </c>
+      <c r="L22" s="12">
+        <v>4.3560000000000959E-3</v>
+      </c>
+      <c r="M22">
+        <v>35616785.280399993</v>
+      </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>18</v>
       </c>
@@ -7739,9 +8095,6 @@
       </c>
       <c r="E23">
         <v>4.5</v>
-      </c>
-      <c r="F23">
-        <v>11576</v>
       </c>
       <c r="G23">
         <v>11854.226332178636</v>
@@ -7753,8 +8106,20 @@
         <f t="shared" si="0"/>
         <v>77409.89191757662</v>
       </c>
+      <c r="J23" s="12">
+        <v>3.5999999999999531E-3</v>
+      </c>
+      <c r="K23" s="12">
+        <v>9557940476.6784</v>
+      </c>
+      <c r="L23" s="12">
+        <v>2.353155999999998</v>
+      </c>
+      <c r="M23">
+        <v>7327740.7203999972</v>
+      </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>19</v>
       </c>
@@ -7780,8 +8145,20 @@
         <f t="shared" si="0"/>
         <v>22183629.732409596</v>
       </c>
+      <c r="J24" s="12">
+        <v>16.483599999999996</v>
+      </c>
+      <c r="K24" s="12">
+        <v>14042553361.638399</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0.18835599999999936</v>
+      </c>
+      <c r="M24">
+        <v>42484584.720400006</v>
+      </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>20</v>
       </c>
@@ -7807,8 +8184,20 @@
         <f t="shared" si="0"/>
         <v>2359365.4440723369</v>
       </c>
+      <c r="J25" s="12">
+        <v>4.243599999999998</v>
+      </c>
+      <c r="K25" s="12">
+        <v>10875511395.9184</v>
+      </c>
+      <c r="L25" s="12">
+        <v>2.1491560000000018</v>
+      </c>
+      <c r="M25">
+        <v>5466150.4803999979</v>
+      </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>21</v>
       </c>
@@ -7834,8 +8223,20 @@
         <f t="shared" si="0"/>
         <v>10343469.843655257</v>
       </c>
+      <c r="J26" s="12">
+        <v>9.3635999999999981</v>
+      </c>
+      <c r="K26" s="12">
+        <v>13844986332.6784</v>
+      </c>
+      <c r="L26" s="12">
+        <v>1.3595560000000013</v>
+      </c>
+      <c r="M26">
+        <v>20294844.800399996</v>
+      </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>22</v>
       </c>
@@ -7861,8 +8262,20 @@
         <f t="shared" si="0"/>
         <v>9289125.2529061101</v>
       </c>
+      <c r="J27" s="12">
+        <v>0.88360000000000072</v>
+      </c>
+      <c r="K27" s="12">
+        <v>9430686161.3584003</v>
+      </c>
+      <c r="L27" s="12">
+        <v>2.6699559999999969</v>
+      </c>
+      <c r="M27">
+        <v>36.240400000005259</v>
+      </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>23</v>
       </c>
@@ -7888,8 +8301,20 @@
         <f t="shared" si="0"/>
         <v>3568857.0204708879</v>
       </c>
+      <c r="J28" s="12">
+        <v>0.88360000000000072</v>
+      </c>
+      <c r="K28" s="12">
+        <v>5124428.2384000057</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0.93315600000000121</v>
+      </c>
+      <c r="M28">
+        <v>6775713.1204000022</v>
+      </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>24</v>
       </c>
@@ -7915,8 +8340,20 @@
         <f t="shared" si="0"/>
         <v>2936579.5703546382</v>
       </c>
+      <c r="J29" s="12">
+        <v>24.403600000000004</v>
+      </c>
+      <c r="K29" s="12">
+        <v>1521368182.2784002</v>
+      </c>
+      <c r="L29" s="12">
+        <v>2.7556000000000271E-2</v>
+      </c>
+      <c r="M29">
+        <v>1364270.7204000009</v>
+      </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>25</v>
       </c>
@@ -7942,8 +8379,20 @@
         <f t="shared" si="0"/>
         <v>363338.17509396427</v>
       </c>
+      <c r="J30" s="12">
+        <v>4.243599999999998</v>
+      </c>
+      <c r="K30" s="12">
+        <v>14174740691.5984</v>
+      </c>
+      <c r="L30" s="12">
+        <v>0.87235599999999869</v>
+      </c>
+      <c r="M30">
+        <v>12481947.680399997</v>
+      </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>26</v>
       </c>
@@ -7969,8 +8418,20 @@
         <f t="shared" si="0"/>
         <v>38.435200139616775</v>
       </c>
+      <c r="J31" s="12">
+        <v>16.483599999999996</v>
+      </c>
+      <c r="K31" s="12">
+        <v>2184414470.7983999</v>
+      </c>
+      <c r="L31" s="12">
+        <v>1.3595560000000013</v>
+      </c>
+      <c r="M31">
+        <v>169.52040000001136</v>
+      </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>27</v>
       </c>
@@ -7996,8 +8457,20 @@
         <f t="shared" si="0"/>
         <v>17477732.558512032</v>
       </c>
+      <c r="J32" s="12">
+        <v>1.1235999999999993</v>
+      </c>
+      <c r="K32" s="12">
+        <v>3549266413.5184002</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0.11155599999999946</v>
+      </c>
+      <c r="M32">
+        <v>30735714.240399994</v>
+      </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>28</v>
       </c>
@@ -8023,8 +8496,20 @@
         <f t="shared" si="0"/>
         <v>5694840.7057544561</v>
       </c>
+      <c r="J33" s="12">
+        <v>8.6436000000000028</v>
+      </c>
+      <c r="K33" s="12">
+        <v>14252739.078399992</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0.44355600000000106</v>
+      </c>
+      <c r="M33">
+        <v>3154104.9603999984</v>
+      </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>29</v>
       </c>
@@ -8050,8 +8535,20 @@
         <f t="shared" si="0"/>
         <v>13843158.104832411</v>
       </c>
+      <c r="J34" s="12">
+        <v>8.6436000000000028</v>
+      </c>
+      <c r="K34" s="12">
+        <v>5161169512.0383997</v>
+      </c>
+      <c r="L34" s="12">
+        <v>3.0067559999999984</v>
+      </c>
+      <c r="M34">
+        <v>13801076.400399996</v>
+      </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>30</v>
       </c>
@@ -8077,8 +8574,20 @@
         <f t="shared" si="0"/>
         <v>2487271.4751782506</v>
       </c>
+      <c r="J35" s="12">
+        <v>9.3635999999999981</v>
+      </c>
+      <c r="K35" s="12">
+        <v>292742518.47840005</v>
+      </c>
+      <c r="L35" s="12">
+        <v>1.1363560000000015</v>
+      </c>
+      <c r="M35">
+        <v>1196792.2403999991</v>
+      </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>31</v>
       </c>
@@ -8104,8 +8613,20 @@
         <f t="shared" si="0"/>
         <v>1309095.4005626861</v>
       </c>
+      <c r="J36" s="12">
+        <v>15.523600000000004</v>
+      </c>
+      <c r="K36" s="12">
+        <v>5582671930.5984001</v>
+      </c>
+      <c r="L36" s="12">
+        <v>0.87235599999999869</v>
+      </c>
+      <c r="M36">
+        <v>209745.6803999996</v>
+      </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>32</v>
       </c>
@@ -8131,8 +8652,20 @@
         <f t="shared" si="0"/>
         <v>391.36261789893047</v>
       </c>
+      <c r="J37" s="12">
+        <v>3.5999999999999531E-3</v>
+      </c>
+      <c r="K37" s="12">
+        <v>2554768719.8784003</v>
+      </c>
+      <c r="L37" s="12">
+        <v>0.2851559999999993</v>
+      </c>
+      <c r="M37">
+        <v>1857714.4803999988</v>
+      </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>33</v>
       </c>
@@ -8158,8 +8691,20 @@
         <f t="shared" si="0"/>
         <v>3126951.6578728175</v>
       </c>
+      <c r="J38" s="12">
+        <v>9.3635999999999981</v>
+      </c>
+      <c r="K38" s="12">
+        <v>1997489277.1583998</v>
+      </c>
+      <c r="L38" s="12">
+        <v>0.44355600000000106</v>
+      </c>
+      <c r="M38">
+        <v>209745.6803999996</v>
+      </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>34</v>
       </c>
@@ -8185,8 +8730,20 @@
         <f t="shared" si="0"/>
         <v>2161514.2025123853</v>
       </c>
+      <c r="J39" s="12">
+        <v>4.243599999999998</v>
+      </c>
+      <c r="K39" s="12">
+        <v>3450589668.5584002</v>
+      </c>
+      <c r="L39" s="12">
+        <v>0.11155599999999946</v>
+      </c>
+      <c r="M39">
+        <v>7991815.9203999974</v>
+      </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>35</v>
       </c>
@@ -8212,8 +8769,20 @@
         <f t="shared" si="0"/>
         <v>117.02621721504337</v>
       </c>
+      <c r="J40" s="12">
+        <v>0.88360000000000072</v>
+      </c>
+      <c r="K40" s="12">
+        <v>41883159.758400016</v>
+      </c>
+      <c r="L40" s="12">
+        <v>5.4755999999999784E-2</v>
+      </c>
+      <c r="M40">
+        <v>78949.760399999752</v>
+      </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>36</v>
       </c>
@@ -8239,8 +8808,20 @@
         <f t="shared" si="0"/>
         <v>6637867.5300684851</v>
       </c>
+      <c r="J41" s="12">
+        <v>16.483599999999996</v>
+      </c>
+      <c r="K41" s="12">
+        <v>14480685507.9184</v>
+      </c>
+      <c r="L41" s="12">
+        <v>2.353155999999998</v>
+      </c>
+      <c r="M41">
+        <v>737846.64039999922</v>
+      </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>37</v>
       </c>
@@ -8266,8 +8847,20 @@
         <f t="shared" si="0"/>
         <v>52463.128937349691</v>
       </c>
+      <c r="J42" s="12">
+        <v>1.1235999999999993</v>
+      </c>
+      <c r="K42" s="12">
+        <v>15496584936.6784</v>
+      </c>
+      <c r="L42" s="12">
+        <v>0.2851559999999993</v>
+      </c>
+      <c r="M42">
+        <v>2683109.5204000012</v>
+      </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>38</v>
       </c>
@@ -8293,8 +8886,20 @@
         <f t="shared" si="0"/>
         <v>9102048.7923658825</v>
       </c>
+      <c r="J43" s="12">
+        <v>16.483599999999996</v>
+      </c>
+      <c r="K43" s="12">
+        <v>790975125.51839995</v>
+      </c>
+      <c r="L43" s="12">
+        <v>2.4523560000000022</v>
+      </c>
+      <c r="M43">
+        <v>22184288.400400005</v>
+      </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>39</v>
       </c>
@@ -8320,8 +8925,20 @@
         <f t="shared" si="0"/>
         <v>1356968.9796236863</v>
       </c>
+      <c r="J44" s="12">
+        <v>24.403600000000004</v>
+      </c>
+      <c r="K44" s="12">
+        <v>19164880493.798401</v>
+      </c>
+      <c r="L44" s="12">
+        <v>0.58675600000000072</v>
+      </c>
+      <c r="M44">
+        <v>4068369.6804000018</v>
+      </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>40</v>
       </c>
@@ -8347,8 +8964,20 @@
         <f t="shared" si="0"/>
         <v>14175853.190982144</v>
       </c>
+      <c r="J45" s="12">
+        <v>1.1235999999999993</v>
+      </c>
+      <c r="K45" s="12">
+        <v>1981204194.9184</v>
+      </c>
+      <c r="L45" s="12">
+        <v>3.8651560000000025</v>
+      </c>
+      <c r="M45">
+        <v>19873942.320400003</v>
+      </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>41</v>
       </c>
@@ -8374,8 +9003,20 @@
         <f t="shared" si="0"/>
         <v>2773408.2022906691</v>
       </c>
+      <c r="J46" s="12">
+        <v>24.403600000000004</v>
+      </c>
+      <c r="K46" s="12">
+        <v>2050343603.7184</v>
+      </c>
+      <c r="L46" s="12">
+        <v>3.1187560000000025</v>
+      </c>
+      <c r="M46">
+        <v>5026653.6804000018</v>
+      </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>42</v>
       </c>
@@ -8401,8 +9042,20 @@
         <f t="shared" si="0"/>
         <v>3953613.3906070013</v>
       </c>
+      <c r="J47" s="12">
+        <v>8.6436000000000028</v>
+      </c>
+      <c r="K47" s="12">
+        <v>339838901.47840005</v>
+      </c>
+      <c r="L47" s="12">
+        <v>3.7403559999999989</v>
+      </c>
+      <c r="M47">
+        <v>32048.160400000157</v>
+      </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>43</v>
       </c>
@@ -8428,8 +9081,20 @@
         <f t="shared" si="0"/>
         <v>10370154.920758568</v>
       </c>
+      <c r="J48" s="12">
+        <v>3.7636000000000016</v>
+      </c>
+      <c r="K48" s="12">
+        <v>6873358408.7184</v>
+      </c>
+      <c r="L48" s="12">
+        <v>0.87235599999999869</v>
+      </c>
+      <c r="M48">
+        <v>980139.60040000081</v>
+      </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>44</v>
       </c>
@@ -8455,8 +9120,20 @@
         <f t="shared" si="0"/>
         <v>2391.7041319078721</v>
       </c>
+      <c r="J49" s="12">
+        <v>0.88360000000000072</v>
+      </c>
+      <c r="K49" s="12">
+        <v>49811411.598400019</v>
+      </c>
+      <c r="L49" s="12">
+        <v>0.87235599999999869</v>
+      </c>
+      <c r="M49">
+        <v>797413.28039999923</v>
+      </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>45</v>
       </c>
@@ -8482,8 +9159,20 @@
         <f t="shared" si="0"/>
         <v>18421067.58099629</v>
       </c>
+      <c r="J50" s="12">
+        <v>1.1235999999999993</v>
+      </c>
+      <c r="K50" s="12">
+        <v>9876440052.8783989</v>
+      </c>
+      <c r="L50" s="12">
+        <v>0.40195599999999931</v>
+      </c>
+      <c r="M50">
+        <v>8785177.4403999969</v>
+      </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
         <v>46</v>
       </c>
@@ -8509,8 +9198,20 @@
         <f t="shared" si="0"/>
         <v>5915.2263524036343</v>
       </c>
+      <c r="J51" s="12">
+        <v>24.403600000000004</v>
+      </c>
+      <c r="K51" s="12">
+        <v>13559736125.8384</v>
+      </c>
+      <c r="L51" s="12">
+        <v>0.44355600000000106</v>
+      </c>
+      <c r="M51">
+        <v>7711840.0804000022</v>
+      </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <v>47</v>
       </c>
@@ -8536,8 +9237,20 @@
         <f t="shared" si="0"/>
         <v>4928064.4801690001</v>
       </c>
+      <c r="J52" s="12">
+        <v>1.1235999999999993</v>
+      </c>
+      <c r="K52" s="12">
+        <v>15592836568.8384</v>
+      </c>
+      <c r="L52" s="12">
+        <v>0.32035600000000081</v>
+      </c>
+      <c r="M52">
+        <v>24453222.800400004</v>
+      </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <v>48</v>
       </c>
@@ -8563,8 +9276,20 @@
         <f t="shared" si="0"/>
         <v>545968.34901032853</v>
       </c>
+      <c r="J53" s="12">
+        <v>15.523600000000004</v>
+      </c>
+      <c r="K53" s="12">
+        <v>820577274.31840003</v>
+      </c>
+      <c r="L53" s="12">
+        <v>2.7556000000000271E-2</v>
+      </c>
+      <c r="M53">
+        <v>140640.00040000034</v>
+      </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <v>49</v>
       </c>
@@ -8590,8 +9315,20 @@
         <f t="shared" si="0"/>
         <v>1571166.2492894514</v>
       </c>
+      <c r="J54" s="12">
+        <v>1.1235999999999993</v>
+      </c>
+      <c r="K54" s="12">
+        <v>755025096.39840007</v>
+      </c>
+      <c r="L54" s="12">
+        <v>3.1187560000000025</v>
+      </c>
+      <c r="M54">
+        <v>161587.92039999965</v>
+      </c>
     </row>
-    <row r="55" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="5">
         <v>50</v>
       </c>
@@ -8617,16 +9354,130 @@
         <f t="shared" si="0"/>
         <v>1098657.4897646278</v>
       </c>
+      <c r="J55" s="12">
+        <v>4.243599999999998</v>
+      </c>
+      <c r="K55" s="12">
+        <v>4366471245.3183994</v>
+      </c>
+      <c r="L55" s="12">
+        <v>1.1363560000000015</v>
+      </c>
+      <c r="M55">
+        <v>9425022.8004000019</v>
+      </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="I56" s="4">
         <f>SUM(I6:I55)</f>
         <v>261598552.78881839</v>
       </c>
+      <c r="J56" s="12">
+        <v>392.81999999999994</v>
+      </c>
+      <c r="K56" s="12">
+        <v>332420482532.0799</v>
+      </c>
+      <c r="L56" s="12">
+        <v>59.752199999999995</v>
+      </c>
+      <c r="M56">
+        <v>418890400.98000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10">
+        <v>0.40041814878642928</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J60" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10">
+        <v>11648.254358698156</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J61" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10">
+        <v>0.41945574259986007</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J62" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10">
+        <v>-21.895312070967076</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10">
+        <v>-1.5788906418259908E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J64" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10">
+        <v>1844.2257898238593</v>
+      </c>
+    </row>
+    <row r="65" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10">
+        <v>0.37549642537330796</v>
+      </c>
+    </row>
+    <row r="66" spans="10:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J66" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10">
+        <v>0.33476793137591498</v>
+      </c>
+    </row>
+    <row r="67" spans="10:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J67" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10">
+        <f>1/(1-M59)</f>
+        <v>1.6678290011213175</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>